--- a/Sample_Scenarios_Data_Old.xlsx
+++ b/Sample_Scenarios_Data_Old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Box\my collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA081C2-7EB3-4C79-B256-19776E0F814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38913A51-DB7E-445F-8C02-6D3AD3B6B4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Scenarios</t>
   </si>
@@ -496,6 +496,20 @@
   <si>
     <t>statements:
     - return: true</t>
+  </si>
+  <si>
+    <t>check if the last login occured in the within 30 minutes</t>
+  </si>
+  <si>
+    <t>statements:
+    - context: "lastLogin := user['urn:ietf:params:scim:schemas:extension:ibm:2.0:User'].lastLogin"
+    - context: "currentTime := now"
+    - context: "timeDiff := timestamp(context.currentTime) - timestamp(context.lastLogin)"
+    - if:
+        match: context.timeDiff &lt;= duration('30m')
+        block:
+        - return: true
+    - return: false</t>
   </si>
 </sst>
 </file>
@@ -895,9 +909,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -1449,6 +1463,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="69" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Sample_Scenarios_Data_Old.xlsx
+++ b/Sample_Scenarios_Data_Old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38913A51-DB7E-445F-8C02-6D3AD3B6B4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F306B9-A920-41EA-86B2-1A143A7C04A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Scenarios</t>
   </si>
@@ -510,6 +510,14 @@
         block:
         - return: true
     - return: false</t>
+  </si>
+  <si>
+    <t>statements:
+    - context: workMode := user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"].customAttributes[0].values[0]
+    - return: context.workMode.toUpper()</t>
+  </si>
+  <si>
+    <t>get a custom attribute called "workMode" in uppercase</t>
   </si>
 </sst>
 </file>
@@ -909,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,6 +1479,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Sample_Scenarios_Data_Old.xlsx
+++ b/Sample_Scenarios_Data_Old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F306B9-A920-41EA-86B2-1A143A7C04A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508DC7A-B085-4FBE-85FD-365D29335840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Scenarios</t>
   </si>
@@ -518,6 +518,20 @@
   </si>
   <si>
     <t>get a custom attribute called "workMode" in uppercase</t>
+  </si>
+  <si>
+    <t>statements:
+  - context: pwdChanged := user["urn:ietf:params:scim:schemas:extension:ibm:2.0:User"].pwdChangedTime
+  - context: currentTime := now
+  - context: timeDiff := timestamp(context.currentTime) - timestamp(context.pwdChanged)
+  - if:
+        match: context.timeDiff &lt;= duration('604800s')
+        block:
+            - return: true
+  - return: false</t>
+  </si>
+  <si>
+    <t>check whether a password changed in the last 7 days</t>
   </si>
 </sst>
 </file>
@@ -917,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,6 +1501,14 @@
         <v>137</v>
       </c>
     </row>
+    <row r="71" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Sample_Scenarios_Data_Old.xlsx
+++ b/Sample_Scenarios_Data_Old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosephLee\Downloads\ibm_watsonx_cel\ibm_watsonx_cel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508DC7A-B085-4FBE-85FD-365D29335840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA8D63-4B76-4E66-B57A-82409518CB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6B532636-AD0D-4C97-BF88-402CF9173A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Scenarios</t>
   </si>
@@ -532,6 +532,22 @@
   </si>
   <si>
     <t>check whether a password changed in the last 7 days</t>
+  </si>
+  <si>
+    <t>statements:
+    - context: testVariable := "LOL"
+    - return: context.testVariable</t>
+  </si>
+  <si>
+    <t>Set a variable and manipulating the variable with "toLower" function to convert the string to lower caps</t>
+  </si>
+  <si>
+    <t>statements:
+    - context: testVariable := "LOL HELLO world"
+    - return: context.testVariable.toLower()</t>
+  </si>
+  <si>
+    <t>Set a variable and using it in the return statement. Retrieval of a variable requires accessing the "context" object</t>
   </si>
 </sst>
 </file>
@@ -931,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4424420E-440E-41DE-AED5-648155FA0DDF}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,6 +1525,22 @@
         <v>139</v>
       </c>
     </row>
+    <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
